--- a/data.xlsx
+++ b/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CDA419-CC46-4A11-B493-AF3D439E3301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D259F641-4711-47EE-9205-27D3D3BEAB25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10830" yWindow="3075" windowWidth="12090" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="131">
   <si>
     <t>Понеділок</t>
   </si>
@@ -526,9 +526,6 @@
     <t>10-15</t>
   </si>
   <si>
-    <t>Субота</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
@@ -548,6 +545,12 @@
   </si>
   <si>
     <t>Auditory</t>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>3,5</t>
   </si>
 </sst>
 </file>
@@ -950,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -959,19 +962,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -984,9 +978,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1014,9 +1005,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1039,37 +1027,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1247,6 +1205,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1256,33 +1247,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1304,24 +1277,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1337,9 +1295,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1377,7 +1335,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1483,7 +1441,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1659,2500 +1617,2436 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="43.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="43.85546875" customWidth="1"/>
     <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="C1" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E1" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="F1" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="46" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="108" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="98">
+      <c r="F2" s="83">
         <v>10</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="53" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="122"/>
-      <c r="B3" s="121" t="s">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="89"/>
+      <c r="B3" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="122"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="25" t="s">
+      <c r="G3" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="89"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="122"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="25" t="s">
+      <c r="G4" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="89"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="122"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="25" t="s">
+      <c r="G5" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="89"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="122"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="25" t="s">
+      <c r="G6" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="89"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="122"/>
-      <c r="B8" s="121"/>
-      <c r="C8" s="25" t="s">
+      <c r="G7" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="89"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="122"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="25" t="s">
+      <c r="G8" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="89"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="122"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="25" t="s">
+      <c r="G9" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="89"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="122"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="25" t="s">
+      <c r="G10" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="89"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="122"/>
-      <c r="B12" s="121" t="s">
+      <c r="G11" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="89"/>
+      <c r="B12" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="10">
         <v>4</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="122"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="71" t="s">
+      <c r="G12" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="89"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="10">
         <v>4</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="122"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="71" t="s">
+      <c r="G13" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="89"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="10">
         <v>4</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="122"/>
-      <c r="B15" s="113"/>
+      <c r="G14" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="122"/>
-      <c r="B16" s="99" t="s">
+      <c r="G15" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="89"/>
+      <c r="B16" s="84" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="79"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-    </row>
-    <row r="17" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="122"/>
-      <c r="B17" s="99" t="s">
+      <c r="G16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+    </row>
+    <row r="17" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="89"/>
+      <c r="B17" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="10">
         <v>2</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="123"/>
-      <c r="B18" s="61" t="s">
+      <c r="G17" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="90"/>
+      <c r="B18" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="90" t="s">
+      <c r="D18" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="91" t="s">
+      <c r="E18" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="92" t="s">
+      <c r="G18" s="77" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="108" t="s">
+    <row r="19" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="34">
         <v>6</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="83"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="82"/>
-    </row>
-    <row r="20" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="109"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="21" t="s">
+      <c r="G19" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="67"/>
+    </row>
+    <row r="20" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="93"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="11">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="83"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="82"/>
-    </row>
-    <row r="21" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="109"/>
-      <c r="B21" s="107" t="s">
+      <c r="G20" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="68"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="67"/>
+    </row>
+    <row r="21" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="93"/>
+      <c r="B21" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="22">
         <v>5</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="109"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="21" t="s">
+      <c r="G21" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="93"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="109"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="21" t="s">
+      <c r="G22" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="93"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="109"/>
-      <c r="B24" s="107" t="s">
+      <c r="G23" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="93"/>
+      <c r="B24" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="22">
         <v>7</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="109"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="21" t="s">
+      <c r="G24" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="93"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="109"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="21" t="s">
+      <c r="G25" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="93"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-    </row>
-    <row r="27" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="109"/>
-      <c r="B27" s="107" t="s">
+      <c r="G26" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="93"/>
+      <c r="B27" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-    </row>
-    <row r="28" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="109"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="21" t="s">
+      <c r="G27" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="93"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-    </row>
-    <row r="29" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="109"/>
-      <c r="B29" s="102" t="s">
+      <c r="G28" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="93"/>
+      <c r="B29" s="98" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="21" t="s">
         <v>65</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-    </row>
-    <row r="30" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="109"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="21" t="s">
+      <c r="G29" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="93"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="109"/>
-      <c r="B31" s="102" t="s">
+      <c r="G30" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="93"/>
+      <c r="B31" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="109"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="72" t="s">
+      <c r="G31" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="93"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="74" t="s">
+      <c r="E32" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="75" t="s">
+      <c r="F32" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="G32" s="43" t="s">
+      <c r="G32" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="109"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="21" t="s">
+    <row r="33" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="93"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G33" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="110"/>
-      <c r="B34" s="102" t="s">
+      <c r="G33" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="102"/>
+      <c r="B34" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="74" t="s">
+      <c r="E34" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="75" t="s">
+      <c r="F34" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="G34" s="43" t="s">
+      <c r="G34" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="111"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="64" t="s">
+    <row r="35" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="94"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="65" t="s">
+      <c r="D35" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="54" t="s">
+      <c r="E35" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="66" t="s">
+      <c r="F35" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="115" t="s">
+      <c r="G35" s="44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="119" t="s">
+      <c r="B36" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="69" t="s">
+      <c r="D36" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="E36" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="93" t="s">
+      <c r="F36" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="68" t="s">
+      <c r="G36" s="53" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="116"/>
-      <c r="B37" s="103"/>
-      <c r="C37" s="71" t="s">
+    <row r="37" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="106"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="73" t="s">
+      <c r="D37" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="74">
+      <c r="E37" s="59">
         <v>3</v>
       </c>
-      <c r="F37" s="75" t="s">
+      <c r="F37" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="43" t="s">
+      <c r="G37" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="116"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="71" t="s">
+    <row r="38" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="106"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="73" t="s">
+      <c r="D38" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="74">
+      <c r="E38" s="59">
         <v>3</v>
       </c>
-      <c r="F38" s="75" t="s">
+      <c r="F38" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="G38" s="43" t="s">
+      <c r="G38" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="117"/>
-      <c r="B39" s="120"/>
-      <c r="C39" s="62" t="s">
+    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="107"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="63" t="s">
+      <c r="D39" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G39" s="60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="117"/>
-      <c r="B40" s="120"/>
-      <c r="C40" s="25" t="s">
+      <c r="G39" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="107"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G40" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="117"/>
-      <c r="B41" s="120"/>
-      <c r="C41" s="25" t="s">
+      <c r="G40" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="107"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G41" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="117"/>
-      <c r="B42" s="120"/>
-      <c r="C42" s="25" t="s">
+      <c r="G41" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="107"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G42" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="117"/>
-      <c r="B43" s="120"/>
-      <c r="C43" s="25" t="s">
+      <c r="G42" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="107"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G43" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="117"/>
-      <c r="B44" s="120"/>
-      <c r="C44" s="25" t="s">
+      <c r="G43" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="107"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G44" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="117"/>
-      <c r="B45" s="120"/>
-      <c r="C45" s="25" t="s">
+      <c r="G44" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="107"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G45" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" s="83"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="87"/>
-    </row>
-    <row r="46" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="117"/>
-      <c r="B46" s="120"/>
-      <c r="C46" s="25" t="s">
+      <c r="G45" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="68"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="72"/>
+    </row>
+    <row r="46" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="107"/>
+      <c r="B46" s="110"/>
+      <c r="C46" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G46" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="83"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="87"/>
-    </row>
-    <row r="47" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="117"/>
-      <c r="B47" s="120"/>
-      <c r="C47" s="25" t="s">
+      <c r="G46" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="68"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="72"/>
+    </row>
+    <row r="47" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="107"/>
+      <c r="B47" s="110"/>
+      <c r="C47" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G47" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="83"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="82"/>
-      <c r="M47" s="87"/>
-    </row>
-    <row r="48" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="117"/>
-      <c r="B48" s="120"/>
-      <c r="C48" s="17" t="s">
+      <c r="G47" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="68"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="72"/>
+    </row>
+    <row r="48" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="107"/>
+      <c r="B48" s="110"/>
+      <c r="C48" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E48" s="22">
         <v>2</v>
       </c>
-      <c r="F48" s="28" t="s">
+      <c r="F48" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="G48" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" s="83"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="87"/>
-    </row>
-    <row r="49" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="117"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="17" t="s">
+      <c r="G48" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="68"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="72"/>
+    </row>
+    <row r="49" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="107"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E49" s="22">
         <v>1</v>
       </c>
-      <c r="F49" s="28" t="s">
+      <c r="F49" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G49" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="83"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="81"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="87"/>
-    </row>
-    <row r="50" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="117"/>
-      <c r="B50" s="102" t="s">
+      <c r="G49" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="68"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="72"/>
+    </row>
+    <row r="50" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="107"/>
+      <c r="B50" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E50" s="27">
+      <c r="E50" s="22">
         <v>1</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="F50" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="G50" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="117"/>
-      <c r="B51" s="103"/>
-      <c r="C51" s="17" t="s">
+      <c r="G50" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="107"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="E51" s="27" t="s">
+      <c r="E51" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G51" s="43" t="s">
+      <c r="G51" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="117"/>
-      <c r="B52" s="104"/>
-      <c r="C52" s="17" t="s">
+    <row r="52" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="107"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="27">
+      <c r="E52" s="22">
         <v>2</v>
       </c>
-      <c r="F52" s="28" t="s">
+      <c r="F52" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G52" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="117"/>
-      <c r="B53" s="102" t="s">
+      <c r="G52" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="107"/>
+      <c r="B53" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="71" t="s">
+      <c r="C53" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="27">
+      <c r="E53" s="22">
         <v>3</v>
       </c>
-      <c r="F53" s="28" t="s">
+      <c r="F53" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="G53" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="117"/>
-      <c r="B54" s="104"/>
-      <c r="C54" s="17" t="s">
+      <c r="G53" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="107"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="D54" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E54" s="27">
+      <c r="E54" s="22">
         <v>2</v>
       </c>
-      <c r="F54" s="28" t="s">
+      <c r="F54" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="G54" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="117"/>
-      <c r="B55" s="107" t="s">
+      <c r="G54" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="107"/>
+      <c r="B55" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="56" t="s">
+      <c r="D55" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="E55" s="57" t="s">
+      <c r="E55" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="F55" s="58" t="s">
+      <c r="F55" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G55" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="117"/>
-      <c r="B56" s="107"/>
-      <c r="C56" s="55" t="s">
+      <c r="G55" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="107"/>
+      <c r="B56" s="95"/>
+      <c r="C56" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="56" t="s">
+      <c r="D56" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="E56" s="57" t="s">
+      <c r="E56" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="F56" s="58" t="s">
+      <c r="F56" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G56" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="117"/>
-      <c r="B57" s="107"/>
-      <c r="C57" s="55" t="s">
+      <c r="G56" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="107"/>
+      <c r="B57" s="95"/>
+      <c r="C57" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="56" t="s">
+      <c r="D57" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="E57" s="57" t="s">
+      <c r="E57" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="F57" s="58" t="s">
+      <c r="F57" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G57" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="117"/>
-      <c r="B58" s="107"/>
-      <c r="C58" s="55" t="s">
+      <c r="G57" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="107"/>
+      <c r="B58" s="95"/>
+      <c r="C58" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D58" s="56" t="s">
+      <c r="D58" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E58" s="57" t="s">
+      <c r="E58" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="F58" s="58" t="s">
+      <c r="F58" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G58" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="117"/>
-      <c r="B59" s="107"/>
-      <c r="C59" s="55" t="s">
+      <c r="G58" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="107"/>
+      <c r="B59" s="95"/>
+      <c r="C59" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="56" t="s">
+      <c r="D59" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="E59" s="57" t="s">
+      <c r="E59" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="F59" s="58" t="s">
+      <c r="F59" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G59" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="117"/>
-      <c r="B60" s="107"/>
-      <c r="C60" s="55" t="s">
+      <c r="G59" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="107"/>
+      <c r="B60" s="95"/>
+      <c r="C60" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E60" s="57" t="s">
+      <c r="E60" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="F60" s="58" t="s">
+      <c r="F60" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G60" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="117"/>
-      <c r="B61" s="107" t="s">
+      <c r="G60" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="107"/>
+      <c r="B61" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D61" s="56" t="s">
+      <c r="D61" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="E61" s="57" t="s">
+      <c r="E61" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="F61" s="58" t="s">
+      <c r="F61" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G61" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="117"/>
-      <c r="B62" s="107"/>
-      <c r="C62" s="55" t="s">
+      <c r="G61" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="107"/>
+      <c r="B62" s="95"/>
+      <c r="C62" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D62" s="56" t="s">
+      <c r="D62" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="E62" s="57" t="s">
+      <c r="E62" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="F62" s="58" t="s">
+      <c r="F62" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G62" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="117"/>
-      <c r="B63" s="107"/>
-      <c r="C63" s="55" t="s">
+      <c r="G62" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="107"/>
+      <c r="B63" s="95"/>
+      <c r="C63" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="56" t="s">
+      <c r="D63" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="E63" s="57" t="s">
+      <c r="E63" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="F63" s="58" t="s">
+      <c r="F63" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G63" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="117"/>
-      <c r="B64" s="107"/>
-      <c r="C64" s="55" t="s">
+      <c r="G63" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="107"/>
+      <c r="B64" s="95"/>
+      <c r="C64" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="56" t="s">
+      <c r="D64" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="E64" s="57" t="s">
+      <c r="E64" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="F64" s="58" t="s">
+      <c r="F64" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G64" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="117"/>
-      <c r="B65" s="113"/>
-      <c r="C65" s="55" t="s">
+      <c r="G64" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="107"/>
+      <c r="B65" s="91"/>
+      <c r="C65" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D65" s="56" t="s">
+      <c r="D65" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="E65" s="57" t="s">
+      <c r="E65" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F65" s="58" t="s">
+      <c r="F65" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G65" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="118"/>
-      <c r="B66" s="11" t="s">
+      <c r="G65" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="108"/>
+      <c r="B66" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C66" s="94"/>
-      <c r="D66" s="95"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="96"/>
-    </row>
-    <row r="67" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="108" t="s">
+      <c r="C66" s="79"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="81"/>
+    </row>
+    <row r="67" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="B67" s="105" t="s">
+      <c r="B67" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="47" t="s">
+      <c r="C67" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="48" t="s">
+      <c r="D67" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="49" t="s">
+      <c r="E67" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F67" s="24" t="s">
+      <c r="F67" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="G67" s="50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="122"/>
-      <c r="B68" s="107"/>
-      <c r="C68" s="17" t="s">
+      <c r="G67" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="89"/>
+      <c r="B68" s="95"/>
+      <c r="C68" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="19" t="s">
+      <c r="F68" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G68" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="109"/>
-      <c r="B69" s="113"/>
-      <c r="C69" s="25" t="s">
+      <c r="G68" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="93"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="26" t="s">
+      <c r="D69" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F69" s="15" t="s">
+      <c r="F69" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="G69" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="109"/>
-      <c r="B70" s="100" t="s">
+      <c r="G69" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="93"/>
+      <c r="B70" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D70" s="26" t="s">
+      <c r="D70" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F70" s="15" t="s">
+      <c r="F70" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G70" s="43" t="s">
+      <c r="G70" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="109"/>
-      <c r="B71" s="100" t="s">
+    <row r="71" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="93"/>
+      <c r="B71" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="D71" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E71" s="27" t="s">
+      <c r="E71" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F71" s="19" t="s">
+      <c r="F71" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G71" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="109"/>
-      <c r="B72" s="100" t="s">
+      <c r="G71" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="93"/>
+      <c r="B72" s="85" t="s">
         <v>41</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="F72" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G72" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I72" s="83"/>
-      <c r="J72" s="80"/>
-      <c r="K72" s="81"/>
-      <c r="L72" s="85"/>
-      <c r="M72" s="82"/>
-    </row>
-    <row r="73" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="109"/>
-      <c r="B73" s="100" t="s">
+      <c r="G72" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" s="68"/>
+      <c r="J72" s="65"/>
+      <c r="K72" s="66"/>
+      <c r="L72" s="70"/>
+      <c r="M72" s="67"/>
+    </row>
+    <row r="73" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="93"/>
+      <c r="B73" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="26" t="s">
+      <c r="D73" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F73" s="15" t="s">
+      <c r="F73" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G73" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I73" s="83"/>
-      <c r="J73" s="84"/>
-      <c r="K73" s="81"/>
-      <c r="L73" s="85"/>
-      <c r="M73" s="88"/>
-    </row>
-    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="109"/>
-      <c r="B74" s="107" t="s">
+      <c r="G73" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" s="68"/>
+      <c r="J73" s="69"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="70"/>
+      <c r="M73" s="73"/>
+    </row>
+    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="93"/>
+      <c r="B74" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D74" s="26" t="s">
+      <c r="D74" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F74" s="15" t="s">
+      <c r="F74" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G74" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="109"/>
-      <c r="B75" s="107"/>
-      <c r="C75" s="71" t="s">
+      <c r="G74" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="93"/>
+      <c r="B75" s="95"/>
+      <c r="C75" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E75" s="10">
         <v>3</v>
       </c>
-      <c r="F75" s="19" t="s">
+      <c r="F75" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G75" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="109"/>
-      <c r="B76" s="107"/>
-      <c r="C76" s="71" t="s">
+      <c r="G75" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="93"/>
+      <c r="B76" s="95"/>
+      <c r="C76" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D76" s="31" t="s">
+      <c r="D76" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E76" s="10">
         <v>3</v>
       </c>
-      <c r="F76" s="19" t="s">
+      <c r="F76" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="G76" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="109"/>
-      <c r="B77" s="107"/>
-      <c r="C77" s="71" t="s">
+      <c r="G76" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="93"/>
+      <c r="B77" s="95"/>
+      <c r="C77" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="73" t="s">
+      <c r="D77" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F77" s="19" t="s">
+      <c r="F77" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G77" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="109"/>
-      <c r="B78" s="107"/>
-      <c r="C78" s="17" t="s">
+      <c r="G77" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="93"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="26" t="s">
+      <c r="D78" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F78" s="19" t="s">
+      <c r="F78" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G78" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="109"/>
-      <c r="B79" s="107"/>
-      <c r="C79" s="17" t="s">
+      <c r="G78" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="93"/>
+      <c r="B79" s="95"/>
+      <c r="C79" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D79" s="29" t="s">
+      <c r="D79" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="27" t="s">
+      <c r="E79" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F79" s="19" t="s">
+      <c r="F79" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G79" s="43" t="s">
+      <c r="G79" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="109"/>
-      <c r="B80" s="107"/>
+    <row r="80" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="93"/>
+      <c r="B80" s="95"/>
       <c r="C80" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G80" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="111"/>
-      <c r="B81" s="11" t="s">
+      <c r="G80" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="94"/>
+      <c r="B81" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C81" s="51"/>
-      <c r="D81" s="52"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="54"/>
-      <c r="G81" s="78"/>
-    </row>
-    <row r="82" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A82" s="108" t="s">
+      <c r="C81" s="36"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="63"/>
+    </row>
+    <row r="82" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="B82" s="105" t="s">
+      <c r="B82" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="70" t="s">
+      <c r="C82" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="D82" s="69" t="s">
+      <c r="D82" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="E82" s="67">
+      <c r="E82" s="52">
         <v>1</v>
       </c>
-      <c r="F82" s="67">
-        <v>3.5</v>
-      </c>
-      <c r="G82" s="68" t="s">
+      <c r="F82" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="G82" s="53" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A83" s="124"/>
-      <c r="B83" s="106"/>
-      <c r="C83" s="71" t="s">
+    <row r="83" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="92"/>
+      <c r="B83" s="101"/>
+      <c r="C83" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="D83" s="73" t="s">
+      <c r="D83" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E83" s="76">
+      <c r="E83" s="61">
         <v>4</v>
       </c>
-      <c r="F83" s="40">
+      <c r="F83" s="27">
         <v>7</v>
       </c>
-      <c r="G83" s="77" t="s">
+      <c r="G83" s="62" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="124"/>
-      <c r="B84" s="106"/>
-      <c r="C84" s="71" t="s">
+    <row r="84" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="92"/>
+      <c r="B84" s="101"/>
+      <c r="C84" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="D84" s="73" t="s">
+      <c r="D84" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="E84" s="76">
+      <c r="E84" s="61">
         <v>3</v>
       </c>
-      <c r="F84" s="97">
+      <c r="F84" s="82">
         <v>13</v>
       </c>
-      <c r="G84" s="77" t="s">
+      <c r="G84" s="62" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="124"/>
-      <c r="B85" s="106"/>
-      <c r="C85" s="71" t="s">
+    <row r="85" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="92"/>
+      <c r="B85" s="101"/>
+      <c r="C85" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="D85" s="73" t="s">
+      <c r="D85" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="E85" s="76">
+      <c r="E85" s="61">
         <v>4</v>
       </c>
-      <c r="F85" s="97">
+      <c r="F85" s="82">
         <v>12</v>
       </c>
-      <c r="G85" s="77" t="s">
+      <c r="G85" s="62" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A86" s="124"/>
-      <c r="B86" s="106"/>
-      <c r="C86" s="71" t="s">
+    <row r="86" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="92"/>
+      <c r="B86" s="101"/>
+      <c r="C86" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D86" s="73" t="s">
+      <c r="D86" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E86" s="76">
+      <c r="E86" s="61">
         <v>4</v>
       </c>
-      <c r="F86" s="97">
+      <c r="F86" s="82">
         <v>9</v>
       </c>
-      <c r="G86" s="77" t="s">
+      <c r="G86" s="62" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A87" s="122"/>
-      <c r="B87" s="107"/>
-      <c r="C87" s="71" t="s">
+    <row r="87" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="89"/>
+      <c r="B87" s="95"/>
+      <c r="C87" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="D87" s="14" t="s">
         <v>76</v>
       </c>
       <c r="E87" s="3">
         <v>2</v>
       </c>
-      <c r="F87" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G87" s="43" t="s">
+      <c r="F87" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G87" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="122"/>
-      <c r="B88" s="107"/>
-      <c r="C88" s="55" t="s">
+    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="89"/>
+      <c r="B88" s="95"/>
+      <c r="C88" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D88" s="56" t="s">
+      <c r="D88" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="E88" s="57" t="s">
+      <c r="E88" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="F88" s="58" t="s">
+      <c r="F88" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="G88" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="122"/>
-      <c r="B89" s="107"/>
-      <c r="C89" s="55" t="s">
+      <c r="G88" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="89"/>
+      <c r="B89" s="95"/>
+      <c r="C89" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D89" s="56" t="s">
+      <c r="D89" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="E89" s="57" t="s">
+      <c r="E89" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="F89" s="58" t="s">
+      <c r="F89" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="G89" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="122"/>
-      <c r="B90" s="107"/>
-      <c r="C90" s="55" t="s">
+      <c r="G89" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="89"/>
+      <c r="B90" s="95"/>
+      <c r="C90" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D90" s="56" t="s">
+      <c r="D90" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="E90" s="57" t="s">
+      <c r="E90" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="F90" s="58" t="s">
+      <c r="F90" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="G90" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="122"/>
-      <c r="B91" s="107"/>
-      <c r="C91" s="55" t="s">
+      <c r="G90" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="89"/>
+      <c r="B91" s="95"/>
+      <c r="C91" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D91" s="56" t="s">
+      <c r="D91" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E91" s="57" t="s">
+      <c r="E91" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="F91" s="58" t="s">
+      <c r="F91" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="G91" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="122"/>
-      <c r="B92" s="107"/>
-      <c r="C92" s="55" t="s">
+      <c r="G91" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="89"/>
+      <c r="B92" s="95"/>
+      <c r="C92" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D92" s="56" t="s">
+      <c r="D92" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="E92" s="57" t="s">
+      <c r="E92" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="F92" s="58" t="s">
+      <c r="F92" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="G92" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="122"/>
-      <c r="B93" s="107"/>
-      <c r="C93" s="55" t="s">
+      <c r="G92" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="89"/>
+      <c r="B93" s="95"/>
+      <c r="C93" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="29" t="s">
+      <c r="D93" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E93" s="57" t="s">
+      <c r="E93" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="F93" s="58" t="s">
+      <c r="F93" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="G93" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="122"/>
-      <c r="B94" s="107"/>
-      <c r="C94" s="55" t="s">
+      <c r="G93" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="89"/>
+      <c r="B94" s="95"/>
+      <c r="C94" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D94" s="56" t="s">
+      <c r="D94" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="E94" s="57" t="s">
+      <c r="E94" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="F94" s="58" t="s">
+      <c r="F94" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="G94" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="122"/>
-      <c r="B95" s="107"/>
-      <c r="C95" s="55" t="s">
+      <c r="G94" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="89"/>
+      <c r="B95" s="95"/>
+      <c r="C95" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D95" s="56" t="s">
+      <c r="D95" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="E95" s="57" t="s">
+      <c r="E95" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="F95" s="58" t="s">
+      <c r="F95" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="G95" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="122"/>
-      <c r="B96" s="107"/>
-      <c r="C96" s="55" t="s">
+      <c r="G95" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="89"/>
+      <c r="B96" s="95"/>
+      <c r="C96" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D96" s="56" t="s">
+      <c r="D96" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="E96" s="57" t="s">
+      <c r="E96" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="F96" s="58" t="s">
+      <c r="F96" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="G96" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="122"/>
-      <c r="B97" s="107"/>
-      <c r="C97" s="55" t="s">
+      <c r="G96" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="89"/>
+      <c r="B97" s="95"/>
+      <c r="C97" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D97" s="56" t="s">
+      <c r="D97" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="E97" s="57" t="s">
+      <c r="E97" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="F97" s="58" t="s">
+      <c r="F97" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="G97" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="122"/>
-      <c r="B98" s="107"/>
-      <c r="C98" s="55" t="s">
+      <c r="G97" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="89"/>
+      <c r="B98" s="95"/>
+      <c r="C98" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D98" s="56" t="s">
+      <c r="D98" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="E98" s="57" t="s">
+      <c r="E98" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F98" s="58" t="s">
+      <c r="F98" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="G98" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="109"/>
-      <c r="B99" s="121" t="s">
+      <c r="G98" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="93"/>
+      <c r="B99" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="25" t="s">
+      <c r="C99" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D99" s="26" t="s">
+      <c r="D99" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="14" t="s">
+      <c r="E99" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="15" t="s">
+      <c r="F99" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G99" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="109"/>
-      <c r="B100" s="121"/>
-      <c r="C100" s="25" t="s">
+      <c r="G99" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="93"/>
+      <c r="B100" s="87"/>
+      <c r="C100" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D100" s="26" t="s">
+      <c r="D100" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="14" t="s">
+      <c r="E100" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="15" t="s">
+      <c r="F100" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G100" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="109"/>
-      <c r="B101" s="121"/>
-      <c r="C101" s="25" t="s">
+      <c r="G100" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="93"/>
+      <c r="B101" s="87"/>
+      <c r="C101" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D101" s="26" t="s">
+      <c r="D101" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E101" s="14" t="s">
+      <c r="E101" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F101" s="15" t="s">
+      <c r="F101" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G101" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="109"/>
-      <c r="B102" s="121"/>
-      <c r="C102" s="25" t="s">
+      <c r="G101" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="93"/>
+      <c r="B102" s="87"/>
+      <c r="C102" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D102" s="31" t="s">
+      <c r="D102" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E102" s="14" t="s">
+      <c r="E102" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F102" s="15" t="s">
+      <c r="F102" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G102" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="109"/>
-      <c r="B103" s="121"/>
-      <c r="C103" s="25" t="s">
+      <c r="G102" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="93"/>
+      <c r="B103" s="87"/>
+      <c r="C103" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="26" t="s">
+      <c r="D103" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E103" s="14" t="s">
+      <c r="E103" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F103" s="15" t="s">
+      <c r="F103" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G103" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="109"/>
-      <c r="B104" s="121"/>
-      <c r="C104" s="25" t="s">
+      <c r="G103" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="93"/>
+      <c r="B104" s="87"/>
+      <c r="C104" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D104" s="26" t="s">
+      <c r="D104" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E104" s="14" t="s">
+      <c r="E104" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F104" s="15" t="s">
+      <c r="F104" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G104" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="109"/>
-      <c r="B105" s="121"/>
-      <c r="C105" s="25" t="s">
+      <c r="G104" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="93"/>
+      <c r="B105" s="87"/>
+      <c r="C105" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D105" s="26" t="s">
+      <c r="D105" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="14" t="s">
+      <c r="E105" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F105" s="15" t="s">
+      <c r="F105" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G105" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="109"/>
-      <c r="B106" s="121"/>
-      <c r="C106" s="25" t="s">
+      <c r="G105" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="93"/>
+      <c r="B106" s="87"/>
+      <c r="C106" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D106" s="26" t="s">
+      <c r="D106" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E106" s="14" t="s">
+      <c r="E106" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F106" s="15" t="s">
+      <c r="F106" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G106" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I106" s="83"/>
-      <c r="J106" s="80"/>
-      <c r="K106" s="81"/>
-      <c r="L106" s="82"/>
-      <c r="M106" s="82"/>
-    </row>
-    <row r="107" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="109"/>
-      <c r="B107" s="121"/>
-      <c r="C107" s="25" t="s">
+      <c r="G106" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I106" s="68"/>
+      <c r="J106" s="65"/>
+      <c r="K106" s="66"/>
+      <c r="L106" s="67"/>
+      <c r="M106" s="67"/>
+    </row>
+    <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="93"/>
+      <c r="B107" s="87"/>
+      <c r="C107" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D107" s="26" t="s">
+      <c r="D107" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E107" s="14" t="s">
+      <c r="E107" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F107" s="15" t="s">
+      <c r="F107" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G107" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10"/>
-      <c r="K107" s="10"/>
-      <c r="L107" s="10"/>
-      <c r="M107" s="10"/>
-    </row>
-    <row r="108" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="109"/>
-      <c r="B108" s="121" t="s">
+      <c r="G107" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+    </row>
+    <row r="108" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="93"/>
+      <c r="B108" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="C108" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D108" s="26" t="s">
+      <c r="D108" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="E108" s="14">
+      <c r="E108" s="10">
         <v>4</v>
       </c>
-      <c r="F108" s="15" t="s">
+      <c r="F108" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G108" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I108" s="83"/>
-      <c r="J108" s="84"/>
-      <c r="K108" s="81"/>
-      <c r="L108" s="85"/>
-      <c r="M108" s="88"/>
-    </row>
-    <row r="109" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="109"/>
-      <c r="B109" s="121"/>
-      <c r="C109" s="25" t="s">
+      <c r="G108" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I108" s="68"/>
+      <c r="J108" s="69"/>
+      <c r="K108" s="66"/>
+      <c r="L108" s="70"/>
+      <c r="M108" s="73"/>
+    </row>
+    <row r="109" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="93"/>
+      <c r="B109" s="87"/>
+      <c r="C109" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D109" s="26" t="s">
+      <c r="D109" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E109" s="14">
+      <c r="E109" s="10">
         <v>1</v>
       </c>
-      <c r="F109" s="15" t="s">
+      <c r="F109" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G109" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
-      <c r="M109" s="10"/>
-    </row>
-    <row r="110" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="109"/>
-      <c r="B110" s="121" t="s">
+      <c r="G109" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+    </row>
+    <row r="110" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="93"/>
+      <c r="B110" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C110" s="25" t="s">
+      <c r="C110" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D110" s="26" t="s">
+      <c r="D110" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="E110" s="14">
+      <c r="E110" s="10">
         <v>4</v>
       </c>
-      <c r="F110" s="15" t="s">
+      <c r="F110" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G110" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10"/>
-      <c r="K110" s="10"/>
-      <c r="L110" s="10"/>
-      <c r="M110" s="10"/>
-    </row>
-    <row r="111" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="109"/>
-      <c r="B111" s="121"/>
-      <c r="C111" s="25" t="s">
+      <c r="G110" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+    </row>
+    <row r="111" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="93"/>
+      <c r="B111" s="87"/>
+      <c r="C111" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D111" s="26" t="s">
+      <c r="D111" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E111" s="14">
+      <c r="E111" s="10">
         <v>1</v>
       </c>
-      <c r="F111" s="15" t="s">
+      <c r="F111" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G111" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I111" s="10"/>
-      <c r="J111" s="10"/>
-      <c r="K111" s="10"/>
-      <c r="L111" s="10"/>
-      <c r="M111" s="10"/>
-    </row>
-    <row r="112" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="109"/>
-      <c r="B112" s="113"/>
-      <c r="C112" s="25" t="s">
+      <c r="G111" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+    </row>
+    <row r="112" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="93"/>
+      <c r="B112" s="91"/>
+      <c r="C112" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D112" s="26" t="s">
+      <c r="D112" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E112" s="14">
+      <c r="E112" s="10">
         <v>3</v>
       </c>
-      <c r="F112" s="15" t="s">
+      <c r="F112" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G112" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I112" s="10"/>
-      <c r="J112" s="10"/>
-      <c r="K112" s="10"/>
-      <c r="L112" s="10"/>
-      <c r="M112" s="10"/>
-    </row>
-    <row r="113" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="109"/>
-      <c r="B113" s="121" t="s">
+      <c r="G112" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+    </row>
+    <row r="113" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="93"/>
+      <c r="B113" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="C113" s="25" t="s">
+      <c r="C113" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D113" s="26" t="s">
+      <c r="D113" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="E113" s="14">
+      <c r="E113" s="10">
         <v>2</v>
       </c>
-      <c r="F113" s="15" t="s">
+      <c r="F113" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G113" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I113" s="10"/>
-      <c r="J113" s="10"/>
-      <c r="K113" s="10"/>
-      <c r="L113" s="10"/>
-      <c r="M113" s="10"/>
-    </row>
-    <row r="114" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="109"/>
-      <c r="B114" s="121"/>
-      <c r="C114" s="25" t="s">
+      <c r="G113" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+    </row>
+    <row r="114" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="93"/>
+      <c r="B114" s="87"/>
+      <c r="C114" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D114" s="26" t="s">
+      <c r="D114" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E114" s="14">
+      <c r="E114" s="10">
         <v>3</v>
       </c>
-      <c r="F114" s="15" t="s">
+      <c r="F114" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G114" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10"/>
-      <c r="L114" s="10"/>
-      <c r="M114" s="10"/>
-    </row>
-    <row r="115" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="109"/>
-      <c r="B115" s="113"/>
-      <c r="C115" s="25" t="s">
+      <c r="G114" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+    </row>
+    <row r="115" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="93"/>
+      <c r="B115" s="91"/>
+      <c r="C115" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D115" s="26" t="s">
+      <c r="D115" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E115" s="14">
+      <c r="E115" s="10">
         <v>5</v>
       </c>
-      <c r="F115" s="15" t="s">
+      <c r="F115" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G115" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I115" s="10"/>
-      <c r="J115" s="10"/>
-      <c r="K115" s="10"/>
-      <c r="L115" s="10"/>
-      <c r="M115" s="10"/>
-    </row>
-    <row r="116" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="109"/>
-      <c r="B116" s="121" t="s">
+      <c r="G115" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+    </row>
+    <row r="116" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="93"/>
+      <c r="B116" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="C116" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D116" s="26" t="s">
+      <c r="D116" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="E116" s="14">
+      <c r="E116" s="10">
         <v>2</v>
       </c>
-      <c r="F116" s="15" t="s">
+      <c r="F116" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G116" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I116" s="10"/>
-      <c r="J116" s="10"/>
-      <c r="K116" s="10"/>
-      <c r="L116" s="10"/>
-      <c r="M116" s="10"/>
-    </row>
-    <row r="117" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="111"/>
-      <c r="B117" s="125"/>
-      <c r="C117" s="51" t="s">
+      <c r="G116" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+    </row>
+    <row r="117" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="94"/>
+      <c r="B117" s="97"/>
+      <c r="C117" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D117" s="52" t="s">
+      <c r="D117" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="E117" s="53">
+      <c r="E117" s="38">
         <v>5</v>
       </c>
-      <c r="F117" s="54" t="s">
+      <c r="F117" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="G117" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="I117" s="10"/>
-      <c r="J117" s="10"/>
-      <c r="K117" s="10"/>
-      <c r="L117" s="10"/>
-      <c r="M117" s="10"/>
-    </row>
-    <row r="118" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="124" t="s">
-        <v>122</v>
-      </c>
-      <c r="B118" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C118" s="38"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="40"/>
-      <c r="F118" s="41"/>
-      <c r="G118" s="42"/>
-      <c r="I118" s="79"/>
-      <c r="J118" s="84"/>
-      <c r="K118" s="81"/>
-      <c r="L118" s="82"/>
-      <c r="M118" s="82"/>
-    </row>
-    <row r="119" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="122"/>
-      <c r="B119" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="C119" s="32"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="34"/>
-      <c r="F119" s="35"/>
-      <c r="G119" s="36"/>
-    </row>
-    <row r="120" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="109"/>
-      <c r="B120" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C120" s="32"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="34"/>
-      <c r="F120" s="35"/>
-      <c r="G120" s="36"/>
-    </row>
-    <row r="121" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="109"/>
-      <c r="B121" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="C121" s="32"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="34"/>
-      <c r="F121" s="35"/>
-      <c r="G121" s="36"/>
-    </row>
-    <row r="122" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="109"/>
-      <c r="B122" s="100" t="s">
-        <v>42</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="8"/>
-    </row>
-    <row r="123" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="111"/>
-      <c r="B123" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="7"/>
-    </row>
-    <row r="124" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G117" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+    </row>
+    <row r="118" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="69"/>
+      <c r="B118" s="66"/>
+      <c r="C118" s="67"/>
+      <c r="D118" s="67"/>
+    </row>
+    <row r="119" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4161,7 +4055,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4170,7 +4064,7 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4179,7 +4073,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4188,7 +4082,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4197,7 +4091,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4206,7 +4100,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4215,7 +4109,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4224,7 +4118,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4233,7 +4127,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4242,7 +4136,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4251,7 +4145,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4260,7 +4154,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4269,7 +4163,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4278,7 +4172,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4287,7 +4181,7 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
     </row>
-    <row r="139" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4296,7 +4190,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4305,7 +4199,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4314,7 +4208,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4323,7 +4217,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4332,7 +4226,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4341,7 +4235,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4350,7 +4244,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4359,7 +4253,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4368,7 +4262,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4377,7 +4271,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4386,7 +4280,7 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4395,7 +4289,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4404,7 +4298,7 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4413,7 +4307,7 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4422,7 +4316,7 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4431,7 +4325,7 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4440,7 +4334,7 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
     </row>
-    <row r="156" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4449,7 +4343,7 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4458,7 +4352,7 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4467,7 +4361,7 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4476,7 +4370,7 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4485,7 +4379,7 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4494,7 +4388,7 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4503,7 +4397,7 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4512,7 +4406,7 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4521,7 +4415,7 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4530,7 +4424,7 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4539,7 +4433,7 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4548,7 +4442,7 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
     </row>
-    <row r="168" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4557,7 +4451,7 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
     </row>
-    <row r="169" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4566,7 +4460,7 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
     </row>
-    <row r="170" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4575,7 +4469,7 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4584,7 +4478,7 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4593,7 +4487,7 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
     </row>
-    <row r="173" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4602,7 +4496,7 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
     </row>
-    <row r="174" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4611,7 +4505,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
     </row>
-    <row r="175" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -4620,7 +4514,7 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
     </row>
-    <row r="176" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -4629,7 +4523,7 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
     </row>
-    <row r="177" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -4638,7 +4532,7 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -4647,7 +4541,7 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -4656,7 +4550,7 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4665,7 +4559,7 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
     </row>
-    <row r="181" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -4674,7 +4568,7 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
     </row>
-    <row r="182" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4683,7 +4577,7 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
     </row>
-    <row r="183" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -4692,7 +4586,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
     </row>
-    <row r="184" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -4701,7 +4595,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
     </row>
-    <row r="185" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -4710,7 +4604,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
     </row>
-    <row r="186" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -4719,7 +4613,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
     </row>
-    <row r="187" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -4728,7 +4622,7 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -4737,7 +4631,7 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
     </row>
-    <row r="189" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -4746,7 +4640,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -4755,7 +4649,7 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
     </row>
-    <row r="191" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -4764,7 +4658,7 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
     </row>
-    <row r="192" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -4773,7 +4667,7 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
     </row>
-    <row r="193" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -4782,7 +4676,7 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -4791,7 +4685,7 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
     </row>
-    <row r="195" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -4800,7 +4694,7 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
     </row>
-    <row r="196" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -4809,7 +4703,7 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
     </row>
-    <row r="197" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -4818,7 +4712,7 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
     </row>
-    <row r="198" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -4827,7 +4721,7 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
     </row>
-    <row r="199" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -4836,7 +4730,7 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -4845,7 +4739,7 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
     </row>
-    <row r="201" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -4854,7 +4748,7 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
     </row>
-    <row r="202" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -4863,7 +4757,7 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
     </row>
-    <row r="203" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -4872,7 +4766,7 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
     </row>
-    <row r="204" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -4881,7 +4775,7 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
     </row>
-    <row r="205" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -4890,7 +4784,7 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
     </row>
-    <row r="206" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -4899,7 +4793,7 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
     </row>
-    <row r="207" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -4908,7 +4802,7 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
     </row>
-    <row r="208" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -4917,7 +4811,7 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
     </row>
-    <row r="209" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -4926,7 +4820,7 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
     </row>
-    <row r="210" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -4935,7 +4829,7 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
     </row>
-    <row r="211" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -4944,7 +4838,7 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
     </row>
-    <row r="212" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -4953,7 +4847,7 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
     </row>
-    <row r="213" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -4962,7 +4856,7 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
     </row>
-    <row r="214" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -4971,7 +4865,7 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
     </row>
-    <row r="215" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -4980,7 +4874,7 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
     </row>
-    <row r="216" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -4989,7 +4883,7 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
     </row>
-    <row r="217" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -4998,7 +4892,7 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
     </row>
-    <row r="218" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -5007,7 +4901,7 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
     </row>
-    <row r="219" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -5016,7 +4910,7 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
     </row>
-    <row r="220" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -5025,7 +4919,7 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
     </row>
-    <row r="221" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -5034,7 +4928,7 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
     </row>
-    <row r="222" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -5043,7 +4937,7 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -5052,7 +4946,7 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -5061,7 +4955,7 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -5070,7 +4964,7 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
     </row>
-    <row r="226" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -5079,7 +4973,7 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
     </row>
-    <row r="227" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -5088,7 +4982,7 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -5097,7 +4991,7 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
     </row>
-    <row r="229" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -5106,7 +5000,7 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
     </row>
-    <row r="230" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -5115,7 +5009,7 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
     </row>
-    <row r="231" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -5124,7 +5018,7 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
     </row>
-    <row r="232" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -5133,7 +5027,7 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
     </row>
-    <row r="233" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -5142,7 +5036,7 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -5151,7 +5045,7 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -5160,7 +5054,7 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
     </row>
-    <row r="236" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -5169,7 +5063,7 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
     </row>
-    <row r="237" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -5178,7 +5072,7 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
     </row>
-    <row r="238" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -5187,7 +5081,7 @@
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
     </row>
-    <row r="239" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -5196,7 +5090,7 @@
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
     </row>
-    <row r="240" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -5205,7 +5099,7 @@
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
     </row>
-    <row r="241" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -5214,7 +5108,7 @@
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
     </row>
-    <row r="242" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -5223,7 +5117,7 @@
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
     </row>
-    <row r="243" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -5233,11 +5127,22 @@
       <c r="G243" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="27">
+    <mergeCell ref="B82:B98"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A19:A35"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A36:A66"/>
+    <mergeCell ref="B36:B49"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="B3:B11"/>
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A118:A123"/>
     <mergeCell ref="B99:B107"/>
     <mergeCell ref="B55:B60"/>
     <mergeCell ref="B61:B65"/>
@@ -5250,18 +5155,6 @@
     <mergeCell ref="B113:B115"/>
     <mergeCell ref="B116:B117"/>
     <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B82:B98"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A19:A35"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A36:A66"/>
-    <mergeCell ref="B36:B49"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5274,7 +5167,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5287,7 +5180,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5301,15 +5194,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x010100E4707454DAD45643AC92CC336BD37F76" ma:contentTypeVersion="2" ma:contentTypeDescription="Створення нового документа." ma:contentTypeScope="" ma:versionID="164a74783180344342d8fb1b1327549e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="808602e1-8547-4cba-aedf-0cf39eea6881" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e172fbfbf2bb3f628ee2914d2b2ab66" ns2:_="">
     <xsd:import namespace="808602e1-8547-4cba-aedf-0cf39eea6881"/>
@@ -5441,6 +5325,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{400108C2-4C6E-461D-96C3-64EF5A3E04C0}">
   <ds:schemaRefs>
@@ -5451,14 +5344,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0315BD2-F1ED-4125-99CE-3A03FE668873}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{903CE65F-6C7B-49C2-AABB-2CE380B117C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5474,4 +5359,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0315BD2-F1ED-4125-99CE-3A03FE668873}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>